--- a/skrum_docs/04_SpecificDesign/35_Setting(Email)_ユーザ設定画面仕様書_20170829.xlsx
+++ b/skrum_docs/04_SpecificDesign/35_Setting(Email)_ユーザ設定画面仕様書_20170829.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="メール配信設定" sheetId="1" r:id="rId1"/>
@@ -841,358 +841,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>投稿通知メール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="4064000"/>
-          <a:ext cx="2616200" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>進捗登録リマインドメール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="4775200"/>
-          <a:ext cx="2971800" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メンバー進捗状況レポートメール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4178300" y="6210300"/>
-          <a:ext cx="2692400" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>サービスお知らせメール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="5486400"/>
-          <a:ext cx="2908300" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>フィードバック対象者通知メール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1483,586 +1131,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7861300" y="4051300"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="4051300"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>231400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="円/楕円 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9880600" y="4165600"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7874000" y="4762500"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9791700" y="4762500"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>167900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="円/楕円 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7975600" y="4876800"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886700" y="5486400"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9804400" y="5486400"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="円/楕円 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7988300" y="5600700"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7899400" y="6197600"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9817100" y="6197600"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>980700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="円/楕円 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="6311900"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2071,7 +1151,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7721600" y="7175500"/>
+          <a:off x="7721600" y="7670800"/>
           <a:ext cx="1714500" cy="584200"/>
           <a:chOff x="6959600" y="6959600"/>
           <a:chExt cx="1714500" cy="584200"/>
@@ -2142,14 +1222,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2158,7 +1238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="7289800"/>
+          <a:off x="8115300" y="7785100"/>
           <a:ext cx="914400" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,14 +1307,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2243,7 +1323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11303000" y="7061200"/>
+          <a:off x="11303000" y="7556500"/>
           <a:ext cx="3467100" cy="4419600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2342,6 +1422,30 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>  "okrTimeline": 1,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>  "okrDeadlineReminder": 1,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2955,270 +2059,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>投稿通知メール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="16256000"/>
-          <a:ext cx="2616200" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>進捗登録リマインドメール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="16967200"/>
-          <a:ext cx="2971800" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>グループ進捗状況レポートメール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="17564100"/>
-          <a:ext cx="2692400" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>サービスお知らせメール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3509,432 +2349,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="16243300"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9766300" y="16243300"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>929900</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>231400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="円/楕円 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="16357600"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7861300" y="16954500"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="16954500"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>155200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>180600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="円/楕円 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="17068800"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886700" y="17551400"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9804400" y="17551400"/>
-          <a:ext cx="304800" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>968000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>15500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="円/楕円 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9906000" y="17665700"/>
-          <a:ext cx="104400" cy="104400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4054,6 +2468,30 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>  "okrTimeline": 1,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>  "okrDeadlineReminder": 1,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4409,330 +2847,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="四角形吹き出し 76"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10731500" y="4038600"/>
-          <a:ext cx="2400300" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>okrReminder</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="四角形吹き出し 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10731500" y="4749800"/>
-          <a:ext cx="2870200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>reportMemberAchievement</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="四角形吹き出し 78"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10744200" y="5486400"/>
-          <a:ext cx="2400300" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>reportFeedbackTarget</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="四角形吹き出し 79"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10769600" y="6197600"/>
-          <a:ext cx="2400300" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>serviceNotification</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -4878,488 +2992,2424 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="四角形吹き出し 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="図形グループ 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10718800" y="16230600"/>
-          <a:ext cx="2400300" cy="381000"/>
+          <a:off x="4165600" y="4699000"/>
+          <a:ext cx="12788900" cy="2540000"/>
+          <a:chOff x="4165600" y="4038600"/>
+          <a:chExt cx="12788900" cy="2540000"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="4064000"/>
+            <a:ext cx="2616200" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>進捗登録リマインドメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="4775200"/>
+            <a:ext cx="2971800" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>メンバー進捗状況レポートメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4178300" y="6210300"/>
+            <a:ext cx="2692400" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>サービスお知らせメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="5486400"/>
+            <a:ext cx="2908300" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>フィードバック対象者通知メール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="図 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7861300" y="4051300"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="図 25"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9779000" y="4051300"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="円/楕円 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9880600" y="4165600"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="図 27"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7874000" y="4762500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="図 28"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9791700" y="4762500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="円/楕円 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7975600" y="4876800"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="図 30"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="5486400"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9804400" y="5486400"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="円/楕円 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7988300" y="5600700"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="図 33"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7899400" y="6197600"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="図 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9817100" y="6197600"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="円/楕円 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9918700" y="6311900"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="四角形吹き出し 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10731500" y="4038600"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>okrReminder</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>okrReminder</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="四角形吹き出し 83"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10718800" y="16941800"/>
-          <a:ext cx="2870200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="四角形吹き出し 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10731500" y="4749800"/>
+            <a:ext cx="2870200" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>reportMemberAchievement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>reportGroupAchievement</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="四角形吹き出し 85"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10718800" y="17589500"/>
-          <a:ext cx="2400300" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="四角形吹き出し 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10744200" y="5486400"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>reportFeedbackTarget</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>serviceNotification</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="四角形吹き出し 86"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14084300" y="4737100"/>
-          <a:ext cx="2870200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="四角形吹き出し 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10769600" y="6197600"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>serviceNotification</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>only for SUPER and ADMIN</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="四角形吹き出し 87"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14084300" y="5473700"/>
-          <a:ext cx="2870200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="四角形吹き出し 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14084300" y="4737100"/>
+            <a:ext cx="2870200" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>only for SUPER and ADMIN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>only for SUPER and ADMIN</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="四角形吹き出し 88"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14122400" y="16929100"/>
-          <a:ext cx="2870200" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -62354"/>
-            <a:gd name="adj2" fmla="val 13407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="四角形吹き出し 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14084300" y="5473700"/>
+            <a:ext cx="2870200" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>only for SUPER and ADMIN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>only for BASIC</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="図形グループ 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4152900" y="16814800"/>
+          <a:ext cx="12839700" cy="1739900"/>
+          <a:chOff x="4152900" y="16230600"/>
+          <a:chExt cx="12839700" cy="1739900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4152900" y="16256000"/>
+            <a:ext cx="2616200" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>進捗登録リマインドメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4152900" y="16967200"/>
+            <a:ext cx="2971800" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>グループ進捗状況レポートメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="17564100"/>
+            <a:ext cx="2692400" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>サービスお知らせメール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="59" name="図 58"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7848600" y="16243300"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="図 59"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9766300" y="16243300"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="円/楕円 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867900" y="16357600"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="62" name="図 61"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7861300" y="16954500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="63" name="図 62"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9779000" y="16954500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="円/楕円 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7962900" y="17068800"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="67" name="図 66"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="17551400"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="68" name="図 67"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9804400" y="17551400"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="円/楕円 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9906000" y="17665700"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="四角形吹き出し 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10718800" y="16230600"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>okrReminder</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="四角形吹き出し 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10718800" y="16941800"/>
+            <a:ext cx="2870200" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>reportGroupAchievement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="四角形吹き出し 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10718800" y="17589500"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>serviceNotification</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="四角形吹き出し 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14122400" y="16929100"/>
+            <a:ext cx="2870200" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>only for BASIC</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="図形グループ 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4165600" y="3987800"/>
+          <a:ext cx="8978900" cy="381000"/>
+          <a:chOff x="4165600" y="3987800"/>
+          <a:chExt cx="8978900" cy="381000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="4038600"/>
+            <a:ext cx="2070100" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>目標期限日通知メール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="90" name="図 89"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7861300" y="4000500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="91" name="図 90"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9779000" y="4000500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="円/楕円 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7962900" y="4114800"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="四角形吹き出し 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10744200" y="3987800"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>okrDeadlineReminder</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="図形グループ 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4127500" y="16129000"/>
+          <a:ext cx="8978900" cy="381000"/>
+          <a:chOff x="4165600" y="3987800"/>
+          <a:chExt cx="8978900" cy="381000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165600" y="4038600"/>
+            <a:ext cx="2070100" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>目標期限日通知メール</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="図 95"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7861300" y="4000500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="97" name="図 96"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9779000" y="4000500"/>
+            <a:ext cx="304800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="円/楕円 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7962900" y="4114800"/>
+            <a:ext cx="104400" cy="104400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="四角形吹き出し 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10744200" y="3987800"/>
+            <a:ext cx="2400300" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -62354"/>
+              <a:gd name="adj2" fmla="val 13407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>okrDeadlineReminder</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
